--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/MiniAppCenter/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED392C83-0687-004A-BDEC-05B626F4B308}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F819DD92-C853-984F-8D0A-0A0450979035}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="12140" windowWidth="19200" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="12580" windowWidth="19200" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetLogin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>MiniApp Admin</t>
-  </si>
-  <si>
-    <t>119411Ngan@@@</t>
   </si>
   <si>
     <t xml:space="preserve">Momo@2022
@@ -91,7 +88,7 @@
     <t>0967313471</t>
   </si>
   <si>
-    <t>0967313400</t>
+    <t>0967313500</t>
   </si>
 </sst>
 </file>
@@ -422,7 +419,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,9 +506,7 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -591,7 +586,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>12345678</v>
@@ -625,7 +620,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -641,10 +636,10 @@
     </row>
     <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
@@ -659,7 +654,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>12345678</v>

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/MiniAppCenter/datatest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F819DD92-C853-984F-8D0A-0A0450979035}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B93C28-20EA-C14C-922D-CDE8F1678928}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="12580" windowWidth="19200" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18800" yWindow="6200" windowWidth="19200" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetLogin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -88,7 +88,10 @@
     <t>0967313471</t>
   </si>
   <si>
-    <t>0967313500</t>
+    <t>119411Ngan@@@</t>
+  </si>
+  <si>
+    <t>0967313506</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,7 +509,9 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -620,7 +625,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B93C28-20EA-C14C-922D-CDE8F1678928}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3BBE7-DF24-DE4A-9CDC-1D44F922531E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18800" yWindow="6200" windowWidth="19200" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>119411Ngan@@@</t>
   </si>
   <si>
-    <t>0967313506</t>
+    <t>0967313510</t>
   </si>
 </sst>
 </file>

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14240"/>
+    <workbookView windowHeight="17760"/>
   </bookViews>
   <sheets>
     <sheet name="SheetLogin" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>0909872013</t>
+  </si>
+  <si>
+    <t>namho.QC.1996@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -95,11 +98,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,9 +111,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -123,11 +142,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,61 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,13 +196,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +209,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -230,30 +241,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +462,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,21 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,18 +509,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -559,151 +529,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -715,22 +711,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1052,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1063,7 +1054,8 @@
     <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.3359375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8359375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1171,7 +1163,7 @@
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>12345678</v>
       </c>
     </row>
@@ -1184,10 +1176,18 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
         <v>123456</v>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
     <hyperlink ref="A5" r:id="rId1" display="ngan@gmail.com"/>
     <hyperlink ref="B4" r:id="rId2" display="119411NganNgan@"/>
     <hyperlink ref="B13" r:id="rId3" display="Momo@2022&#10;"/>
-    <hyperlink ref="A16" r:id="rId4" display="0909872013"/>
+    <hyperlink ref="A17" r:id="rId4" display="namho.QC.1996@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C409F7E4-CCF9-FA48-AF0A-47A8D0A39E50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A7ED04-F610-3E4F-BE52-52DAC8C62531}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="2460" windowWidth="23680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="9700" windowWidth="23680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetLogin" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>namho.QC.1996@gmail.com</t>
   </si>
   <si>
-    <t>119411Dat@@@</t>
-  </si>
-  <si>
     <t>0967313521</t>
+  </si>
+  <si>
+    <t>119411@@@</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,7 +540,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A7ED04-F610-3E4F-BE52-52DAC8C62531}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AC890-1279-A947-A8C2-4D701E9A75AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="9700" windowWidth="23680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49240" yWindow="3860" windowWidth="23680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetLogin" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>namho.QC.1996@gmail.com</t>
   </si>
   <si>
-    <t>0967313521</t>
-  </si>
-  <si>
-    <t>119411@@@</t>
+    <t>0967313522</t>
+  </si>
+  <si>
+    <t>119411Dat@@@</t>
   </si>
 </sst>
 </file>

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AC890-1279-A947-A8C2-4D701E9A75AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84FF89-1A5F-9C4D-B1E1-468030648A48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49240" yWindow="3860" windowWidth="23680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,10 +92,10 @@
     <t>namho.QC.1996@gmail.com</t>
   </si>
   <si>
-    <t>0967313522</t>
-  </si>
-  <si>
     <t>119411Dat@@@</t>
+  </si>
+  <si>
+    <t>0967313523</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,7 +540,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84FF89-1A5F-9C4D-B1E1-468030648A48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101872A4-BCBC-0048-A341-C0B27DE38C65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49240" yWindow="3860" windowWidth="23680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>119411Dat@@@</t>
   </si>
   <si>
-    <t>0967313523</t>
+    <t>0967313525</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/datatest/Login.xlsx
+++ b/datatest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101872A4-BCBC-0048-A341-C0B27DE38C65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE260CB-FAB8-7E40-B77A-D15CF591871C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49240" yWindow="3860" windowWidth="23680" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>119411Dat@@@</t>
   </si>
   <si>
-    <t>0967313525</t>
+    <t>0967313526</t>
   </si>
 </sst>
 </file>
